--- a/Income/PSA_inc.xlsx
+++ b/Income/PSA_inc.xlsx
@@ -1913,16 +1913,16 @@
         <v>0.705</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.7058</v>
+        <v>0.7038</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.7075</v>
+        <v>0.7054</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.7138</v>
+        <v>0.7118</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7173</v>
+        <v>0.7152</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7163</v>
@@ -2040,16 +2040,16 @@
         <v>0.4858</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4912</v>
+        <v>0.4898</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4975</v>
+        <v>0.496</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5095</v>
+        <v>0.508</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5153</v>
+        <v>0.5138</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5163</v>
@@ -2167,16 +2167,16 @@
         <v>0.4625</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4758</v>
+        <v>0.4769</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4895</v>
+        <v>0.4907</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.5037</v>
+        <v>0.5048</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.506</v>
+        <v>0.5071</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.5116</v>
@@ -2294,16 +2294,16 @@
         <v>0.372</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3844</v>
+        <v>0.3871</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.4161</v>
+        <v>0.4187</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.4368</v>
+        <v>0.4394</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.4432</v>
+        <v>0.4458</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.522</v>
@@ -2421,16 +2421,16 @@
         <v>0.5881</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.5812</v>
+        <v>0.5755</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.5688</v>
+        <v>0.5632</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.5586</v>
+        <v>0.5529</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.5646</v>
+        <v>0.5589</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.554</v>
@@ -4016,16 +4016,16 @@
         <v>0.6763</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.6814</v>
+        <v>0.6795</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.6846</v>
+        <v>0.6827</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.6928</v>
+        <v>0.6908</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.6954</v>
+        <v>0.6934</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.6929</v>
@@ -4143,16 +4143,16 @@
         <v>0.7118</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.7144</v>
+        <v>0.7083</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.7231</v>
+        <v>0.717</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.7211</v>
+        <v>0.715</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.7304</v>
+        <v>0.7242</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.7286</v>
